--- a/DiaryKnowHow.xlsx
+++ b/DiaryKnowHow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="386">
   <si>
     <t>Cách 2 : up level của * dùng con trỏ cấp cao hơn con trỏ hiện tại</t>
   </si>
@@ -8090,6 +8090,9 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -8827,14 +8830,14 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10559,25 +10562,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="33.75">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="23.25">
       <c r="A3" s="47" t="s">
@@ -10604,25 +10607,25 @@
       <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="33.75">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="20.25">
       <c r="B7" s="34" t="s">
@@ -10739,25 +10742,25 @@
       <c r="C25" s="21"/>
     </row>
     <row r="27" spans="2:18" s="40" customFormat="1" ht="33.75">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
     </row>
     <row r="29" spans="2:18" ht="20.25">
       <c r="B29" s="35" t="s">
@@ -11576,31 +11579,31 @@
   <dimension ref="A1:XFD159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" s="57" customFormat="1" ht="23.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -11608,25 +11611,25 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="57" customFormat="1" ht="23.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -28529,10 +28532,10 @@
       <c r="B115" s="48"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="62"/>
+      <c r="B116" s="60"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="62"/>
+      <c r="B117" s="60"/>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="58" t="s">
@@ -28540,7 +28543,7 @@
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="60" t="s">
         <v>382</v>
       </c>
     </row>
@@ -28609,7 +28612,9 @@
       <c r="B133" s="21"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="21"/>
+      <c r="B134" s="21" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="21"/>
